--- a/Excel_Practice_Student.xlsx
+++ b/Excel_Practice_Student.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\htand\Code\savvycoders\homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5271D3E-F864-4603-A9C9-32C72D477027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F69DB2A-1EEC-4D6B-8DD5-E534A6810329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payroll" sheetId="1" r:id="rId1"/>
     <sheet name="Loans" sheetId="2" r:id="rId2"/>
-    <sheet name="Function" sheetId="3" r:id="rId3"/>
+    <sheet name="Student Roster" sheetId="5" r:id="rId3"/>
+    <sheet name="Credit Card" sheetId="6" r:id="rId4"/>
+    <sheet name="Function" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Payroll!$A$1:$P$19</definedName>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="235">
   <si>
     <t>Employee Payroll</t>
   </si>
@@ -638,6 +640,111 @@
   </si>
   <si>
     <t>Printing would be done by defining the print area: layout, print area, set print area</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade </t>
+  </si>
+  <si>
+    <t>Sarah Ashworth</t>
+  </si>
+  <si>
+    <t>Amanda Johnson</t>
+  </si>
+  <si>
+    <t>David Cline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew Roberts </t>
+  </si>
+  <si>
+    <t>Sierra Chadwick</t>
+  </si>
+  <si>
+    <t>Ronnie Dangerfield</t>
+  </si>
+  <si>
+    <t>Thomas Cruise</t>
+  </si>
+  <si>
+    <t>Bradley Snickerwrath</t>
+  </si>
+  <si>
+    <t>Gracie Smith</t>
+  </si>
+  <si>
+    <t>John McDonald</t>
+  </si>
+  <si>
+    <t>Raymond James</t>
+  </si>
+  <si>
+    <t>Social Studies</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Semester Grades</t>
+  </si>
+  <si>
+    <t>COUNT of Students</t>
+  </si>
+  <si>
+    <t>MEDIAN of Age</t>
+  </si>
+  <si>
+    <t>MIN of Age</t>
+  </si>
+  <si>
+    <t>MAX of Grade</t>
+  </si>
+  <si>
+    <t>Average of Grades</t>
+  </si>
+  <si>
+    <t>MODE of Grades</t>
+  </si>
+  <si>
+    <t>Credit Card Debt</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest Rate </t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest Paid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Loan Amount </t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capitol One </t>
+  </si>
+  <si>
+    <t>Citi Card</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Wal-Mart</t>
   </si>
 </sst>
 </file>
@@ -648,7 +755,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,6 +807,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -866,7 +982,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -927,12 +1043,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -950,6 +1060,18 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1192,6 +1314,1957 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Credit Card'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monthly Payment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Credit Card'!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Discover</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Capitol One </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Citi Card</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Target</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wal-Mart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Credit Card'!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1086.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>262.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>588.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F15-4B3F-8F69-A22CBC29F320}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="600315056"/>
+        <c:axId val="600314728"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="600315056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="600314728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="600314728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="600315056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Card Balance vs Monthly Payment</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Credit Card'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Credit Card'!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Discover</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Capitol One </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Citi Card</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Target</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wal-Mart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Credit Card'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>780</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B2AB-494B-A701-19DCB5D11C90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Credit Card'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Monthly Payment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Credit Card'!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Discover</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Capitol One </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Citi Card</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Target</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wal-Mart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Credit Card'!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1086.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>262.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>588.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B2AB-494B-A701-19DCB5D11C90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="774591592"/>
+        <c:axId val="774585032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="774591592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Cards</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="774585032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="774585032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="774591592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1225,6 +3298,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E8C9A7-F1D8-3C1E-E76E-5EA227A20E08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>823911</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{922AD381-4F06-15A8-83F2-4202948A42DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1556,7 +3706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -1574,866 +3724,866 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="30">
+      <c r="D1" s="28">
         <v>44669</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="32" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="30" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="27">
         <v>10</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="26">
         <v>40</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="26">
         <v>40</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="26">
         <v>40</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="26">
         <v>40</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="26">
         <v>40</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="32">
         <f>C4*SUM(D4:H4)</f>
         <v>2000</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="33">
         <f t="shared" ref="J4:J14" si="0">IF(D4&gt;40,D4-40,0)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="33">
         <f t="shared" ref="K4:N14" si="1">IF(E4&gt;40,E4-40,0)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M4" s="35">
+      <c r="M4" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N4" s="35">
+      <c r="N4" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O4" s="36">
+      <c r="O4" s="34">
         <f>0.5*SUM(J4:N4)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="36">
+      <c r="P4" s="34">
         <f>I4+O4</f>
         <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="27">
         <v>15</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="26">
         <v>35</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="26">
         <v>35</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="26">
         <v>35</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="26">
         <v>35</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="26">
         <v>35</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="32">
         <f t="shared" ref="I5:I14" si="2">C5*SUM(D5:H5)</f>
         <v>2625</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N5" s="35">
+      <c r="N5" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O5" s="36">
-        <f t="shared" ref="O5:O14" si="3">0.5*J5*$C5</f>
+      <c r="O5" s="34">
+        <f t="shared" ref="O5:O6" si="3">0.5*J5*$C5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="36">
+      <c r="P5" s="34">
         <f t="shared" ref="P5:P14" si="4">I5+O5</f>
         <v>2625</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="27">
         <v>3.5</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="26">
         <v>30</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="26">
         <v>30</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="26">
         <v>30</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="26">
         <v>30</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="26">
         <v>30</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="32">
         <f t="shared" si="2"/>
         <v>525</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N6" s="35">
+      <c r="N6" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="36">
+      <c r="O6" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P6" s="36">
+      <c r="P6" s="34">
         <f t="shared" si="4"/>
         <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="27">
         <v>20.100000000000001</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="26">
         <v>50</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="26">
         <v>50</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="26">
         <v>50</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="26">
         <v>50</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="26">
         <v>50</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="32">
         <f t="shared" si="2"/>
         <v>5025</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="33">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="33">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="33">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7" s="33">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="N7" s="35">
+      <c r="N7" s="33">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="O7" s="36">
+      <c r="O7" s="34">
         <f>SUM(J7:N7)*C7*0.5</f>
         <v>502.50000000000006</v>
       </c>
-      <c r="P7" s="36">
+      <c r="P7" s="34">
         <f t="shared" si="4"/>
         <v>5527.5</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="27">
         <v>5.75</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="26">
         <v>55</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="26">
         <v>55</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="26">
         <v>55</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="26">
         <v>55</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="26">
         <v>55</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="32">
         <f t="shared" si="2"/>
         <v>1581.25</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="33">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="33">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="33">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="33">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="N8" s="35">
+      <c r="N8" s="33">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="O8" s="36">
+      <c r="O8" s="34">
         <f t="shared" ref="O8:O13" si="5">SUM(J8:N8)*C8*0.5</f>
         <v>215.625</v>
       </c>
-      <c r="P8" s="36">
+      <c r="P8" s="34">
         <f t="shared" si="4"/>
         <v>1796.875</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="27">
         <v>12</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="26">
         <v>45</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="26">
         <v>45</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="26">
         <v>45</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="26">
         <v>45</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="26">
         <v>45</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="32">
         <f t="shared" si="2"/>
         <v>2700</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="33">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="33">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="33">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="N9" s="35">
+      <c r="N9" s="33">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="34">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
-      <c r="P9" s="36">
+      <c r="P9" s="34">
         <f t="shared" si="4"/>
         <v>2850</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="27">
         <v>6.55</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="26">
         <v>25</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="26">
         <v>25</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="26">
         <v>25</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="26">
         <v>25</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="26">
         <v>25</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="32">
         <f t="shared" si="2"/>
         <v>818.75</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N10" s="35">
+      <c r="N10" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="36">
+      <c r="O10" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P10" s="36">
+      <c r="P10" s="34">
         <f t="shared" si="4"/>
         <v>818.75</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="27">
         <v>30</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="26">
         <v>29</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="26">
         <v>29</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="26">
         <v>29</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="26">
         <v>29</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="26">
         <v>29</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="32">
         <f t="shared" si="2"/>
         <v>4350</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M11" s="35">
+      <c r="M11" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N11" s="35">
+      <c r="N11" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P11" s="36">
+      <c r="P11" s="34">
         <f t="shared" si="4"/>
         <v>4350</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="27">
         <v>75</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="26">
         <v>32</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="26">
         <v>32</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="26">
         <v>32</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="26">
         <v>32</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="26">
         <v>32</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="32">
         <f t="shared" si="2"/>
         <v>12000</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M12" s="35">
+      <c r="M12" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N12" s="35">
+      <c r="N12" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O12" s="36">
+      <c r="O12" s="34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P12" s="36">
+      <c r="P12" s="34">
         <f t="shared" si="4"/>
         <v>12000</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="27">
         <v>40</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="26">
         <v>44</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="26">
         <v>44</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="26">
         <v>44</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="26">
         <v>44</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="26">
         <v>44</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="32">
         <f t="shared" si="2"/>
         <v>8800</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="33">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="33">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="33">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M13" s="35">
+      <c r="M13" s="33">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="N13" s="35">
+      <c r="N13" s="33">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="O13" s="36">
+      <c r="O13" s="34">
         <f t="shared" si="5"/>
         <v>400</v>
       </c>
-      <c r="P13" s="36">
+      <c r="P13" s="34">
         <f t="shared" si="4"/>
         <v>9200</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="27">
         <v>25</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="26">
         <v>22</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="26">
         <v>22</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="26">
         <v>22</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="26">
         <v>22</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="26">
         <v>22</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="32">
         <f t="shared" si="2"/>
         <v>2750</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M14" s="35">
+      <c r="M14" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N14" s="35">
+      <c r="N14" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O14" s="36">
-        <f t="shared" ref="O8:O14" si="6">SUM(J14:N14)*$C$7*0.5</f>
+      <c r="O14" s="34">
+        <f t="shared" ref="O14" si="6">SUM(J14:N14)*$C$7*0.5</f>
         <v>0</v>
       </c>
-      <c r="P14" s="36">
+      <c r="P14" s="34">
         <f t="shared" si="4"/>
         <v>2750</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="31"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="29"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27">
         <f>MAX(C4:C14)</f>
         <v>75</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="35">
         <f t="shared" ref="D16:I16" si="7">MAX(D4:D14)</f>
         <v>55</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="29">
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="27">
         <f t="shared" si="7"/>
         <v>12000</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="31"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="29"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27">
         <f>MIN(C4:C14)</f>
         <v>3.5</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="35">
         <f t="shared" ref="D17:I17" si="8">MIN(D4:D14)</f>
         <v>22</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="29">
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="27">
         <f t="shared" si="8"/>
         <v>525</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="31"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="29"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29">
+      <c r="B18" s="26"/>
+      <c r="C18" s="27">
         <f>AVERAGE(C4:C14)</f>
         <v>22.081818181818178</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="35">
         <f t="shared" ref="D18:I18" si="9">AVERAGE(D4:D14)</f>
         <v>37</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="29">
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="27">
         <f t="shared" si="9"/>
         <v>3925</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="39" t="s">
+      <c r="J18" s="33"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="P18" s="40" t="s">
+      <c r="P18" s="38" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29">
+      <c r="B19" s="26"/>
+      <c r="C19" s="27">
         <f>SUM(C4:C14)</f>
         <v>242.89999999999998</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="35">
         <f t="shared" ref="D19:O19" si="10">SUM(D4:D14)</f>
         <v>407</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="29">
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="27">
         <f t="shared" si="10"/>
         <v>43175</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="36">
         <f t="shared" si="10"/>
         <v>34</v>
       </c>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="29">
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="27">
         <f t="shared" si="10"/>
         <v>1268.125</v>
       </c>
-      <c r="P19" s="41">
+      <c r="P19" s="39">
         <f>SUM(O19+I19)</f>
         <v>44443.125</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="40" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2447,7 +4597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
@@ -2602,6 +4752,438 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB90925-4B3E-4CB3-9FF6-D992D95D5CAB}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="29">
+        <v>12</v>
+      </c>
+      <c r="C3" s="29">
+        <v>85</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="29">
+        <v>11</v>
+      </c>
+      <c r="C4" s="29">
+        <v>72</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="29">
+        <v>13</v>
+      </c>
+      <c r="C5" s="29">
+        <v>60</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="29">
+        <v>12</v>
+      </c>
+      <c r="C6" s="29">
+        <v>95</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="29">
+        <v>14</v>
+      </c>
+      <c r="C7" s="29">
+        <v>88</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="29">
+        <v>12</v>
+      </c>
+      <c r="C8" s="29">
+        <v>99</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="29">
+        <v>11</v>
+      </c>
+      <c r="C9" s="29">
+        <v>75</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="29">
+        <v>13</v>
+      </c>
+      <c r="C10" s="29">
+        <v>100</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="29">
+        <v>13</v>
+      </c>
+      <c r="C11" s="29">
+        <v>75</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="29">
+        <v>15</v>
+      </c>
+      <c r="C12" s="29">
+        <v>85</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="29">
+        <v>11</v>
+      </c>
+      <c r="C13" s="29">
+        <v>85</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" s="29">
+        <f>MIN(B3:B13)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="29">
+        <f>MAX(C3:C13)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="29">
+        <f>AVERAGE(C3:C13)</f>
+        <v>83.545454545454547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" s="29">
+        <f>MODE(C3:C13)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="29">
+        <f>MEDIAN(B3:B13)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="29">
+        <f>COUNTA(A3:A13)</f>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A94326-50C8-474C-BBE5-B6945F614496}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="47">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="48">
+        <v>0.21</v>
+      </c>
+      <c r="D4" s="29">
+        <v>3</v>
+      </c>
+      <c r="E4" s="47">
+        <f>SUM(B4*C4)*3</f>
+        <v>1260</v>
+      </c>
+      <c r="F4" s="47">
+        <f>SUM(E4+B4)</f>
+        <v>3260</v>
+      </c>
+      <c r="G4" s="47">
+        <f>SUM(F4/3)</f>
+        <v>1086.6666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="47">
+        <v>450</v>
+      </c>
+      <c r="C5" s="48">
+        <v>0.25</v>
+      </c>
+      <c r="D5" s="29">
+        <v>3</v>
+      </c>
+      <c r="E5" s="47">
+        <f t="shared" ref="E5:E8" si="0">SUM(B5*C5)*3</f>
+        <v>337.5</v>
+      </c>
+      <c r="F5" s="47">
+        <f t="shared" ref="F5:F8" si="1">SUM(E5+B5)</f>
+        <v>787.5</v>
+      </c>
+      <c r="G5" s="47">
+        <f t="shared" ref="G5:G8" si="2">SUM(F5/3)</f>
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="47">
+        <v>975</v>
+      </c>
+      <c r="C6" s="48">
+        <v>0.27</v>
+      </c>
+      <c r="D6" s="29">
+        <v>3</v>
+      </c>
+      <c r="E6" s="47">
+        <f t="shared" si="0"/>
+        <v>789.75</v>
+      </c>
+      <c r="F6" s="47">
+        <f t="shared" si="1"/>
+        <v>1764.75</v>
+      </c>
+      <c r="G6" s="47">
+        <f t="shared" si="2"/>
+        <v>588.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="47">
+        <v>1500</v>
+      </c>
+      <c r="C7" s="48">
+        <v>0.15</v>
+      </c>
+      <c r="D7" s="29">
+        <v>3</v>
+      </c>
+      <c r="E7" s="47">
+        <f t="shared" si="0"/>
+        <v>675</v>
+      </c>
+      <c r="F7" s="47">
+        <f t="shared" si="1"/>
+        <v>2175</v>
+      </c>
+      <c r="G7" s="47">
+        <f t="shared" si="2"/>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="47">
+        <v>780</v>
+      </c>
+      <c r="C8" s="48">
+        <v>0.25</v>
+      </c>
+      <c r="D8" s="29">
+        <v>3</v>
+      </c>
+      <c r="E8" s="47">
+        <f t="shared" si="0"/>
+        <v>585</v>
+      </c>
+      <c r="F8" s="47">
+        <f t="shared" si="1"/>
+        <v>1365</v>
+      </c>
+      <c r="G8" s="47">
+        <f t="shared" si="2"/>
+        <v>455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N240"/>
   <sheetViews>
@@ -2626,19 +5208,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -2948,13 +5530,13 @@
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -3212,17 +5794,17 @@
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -3582,19 +6164,19 @@
       <c r="N39" s="2"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="27" t="s">
+      <c r="F40" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -4274,19 +6856,19 @@
       <c r="N63" s="2"/>
     </row>
     <row r="64" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="27" t="s">
+      <c r="F64" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -4990,16 +7572,16 @@
       <c r="N87" s="2"/>
     </row>
     <row r="88" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -5358,19 +7940,19 @@
       <c r="N102" s="2"/>
     </row>
     <row r="103" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="26" t="s">
+      <c r="A103" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="B103" s="26"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
       <c r="E103" s="2"/>
-      <c r="F103" s="26" t="s">
+      <c r="F103" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="G103" s="26"/>
-      <c r="H103" s="26"/>
-      <c r="I103" s="26"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
@@ -5682,22 +8264,22 @@
       <c r="N114" s="2"/>
     </row>
     <row r="115" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="26" t="s">
+      <c r="A115" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="B115" s="26"/>
-      <c r="C115" s="26"/>
-      <c r="D115" s="26"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="41"/>
       <c r="E115" s="2"/>
-      <c r="F115" s="26" t="s">
+      <c r="F115" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="G115" s="26"/>
-      <c r="H115" s="26"/>
-      <c r="I115" s="26"/>
-      <c r="J115" s="26"/>
-      <c r="K115" s="26"/>
-      <c r="L115" s="26"/>
+      <c r="G115" s="41"/>
+      <c r="H115" s="41"/>
+      <c r="I115" s="41"/>
+      <c r="J115" s="41"/>
+      <c r="K115" s="41"/>
+      <c r="L115" s="41"/>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
     </row>
@@ -5972,13 +8554,13 @@
       <c r="N126" s="2"/>
     </row>
     <row r="127" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="26" t="s">
+      <c r="A127" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="B127" s="26"/>
-      <c r="C127" s="26"/>
-      <c r="D127" s="26"/>
-      <c r="E127" s="26"/>
+      <c r="B127" s="41"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="41"/>
+      <c r="E127" s="41"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
@@ -6224,19 +8806,19 @@
       <c r="N137" s="2"/>
     </row>
     <row r="138" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="26" t="s">
+      <c r="A138" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="B138" s="26"/>
-      <c r="C138" s="26"/>
-      <c r="D138" s="26"/>
+      <c r="B138" s="41"/>
+      <c r="C138" s="41"/>
+      <c r="D138" s="41"/>
       <c r="E138" s="2"/>
-      <c r="F138" s="26" t="s">
+      <c r="F138" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="G138" s="26"/>
-      <c r="H138" s="26"/>
-      <c r="I138" s="26"/>
+      <c r="G138" s="41"/>
+      <c r="H138" s="41"/>
+      <c r="I138" s="41"/>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
@@ -6546,24 +9128,24 @@
       <c r="N149" s="2"/>
     </row>
     <row r="150" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="26" t="s">
+      <c r="A150" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="B150" s="26"/>
-      <c r="C150" s="26"/>
-      <c r="D150" s="26"/>
-      <c r="E150" s="26"/>
-      <c r="F150" s="26"/>
+      <c r="B150" s="41"/>
+      <c r="C150" s="41"/>
+      <c r="D150" s="41"/>
+      <c r="E150" s="41"/>
+      <c r="F150" s="41"/>
       <c r="G150" s="2"/>
-      <c r="H150" s="26" t="s">
+      <c r="H150" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="I150" s="26"/>
-      <c r="J150" s="26"/>
-      <c r="K150" s="26"/>
-      <c r="L150" s="26"/>
-      <c r="M150" s="26"/>
-      <c r="N150" s="26"/>
+      <c r="I150" s="41"/>
+      <c r="J150" s="41"/>
+      <c r="K150" s="41"/>
+      <c r="L150" s="41"/>
+      <c r="M150" s="41"/>
+      <c r="N150" s="41"/>
     </row>
     <row r="151" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
@@ -7311,14 +9893,14 @@
     </row>
     <row r="175" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
-      <c r="B175" s="26" t="s">
+      <c r="B175" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="C175" s="26"/>
-      <c r="D175" s="26"/>
-      <c r="E175" s="26"/>
-      <c r="F175" s="26"/>
-      <c r="G175" s="26"/>
+      <c r="C175" s="41"/>
+      <c r="D175" s="41"/>
+      <c r="E175" s="41"/>
+      <c r="F175" s="41"/>
+      <c r="G175" s="41"/>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
@@ -7577,16 +10159,16 @@
     </row>
     <row r="187" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
-      <c r="B187" s="26" t="s">
+      <c r="B187" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="C187" s="26"/>
-      <c r="D187" s="26"/>
-      <c r="E187" s="26"/>
-      <c r="F187" s="26"/>
-      <c r="G187" s="26"/>
-      <c r="H187" s="26"/>
-      <c r="I187" s="26"/>
+      <c r="C187" s="41"/>
+      <c r="D187" s="41"/>
+      <c r="E187" s="41"/>
+      <c r="F187" s="41"/>
+      <c r="G187" s="41"/>
+      <c r="H187" s="41"/>
+      <c r="I187" s="41"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
@@ -8000,15 +10582,15 @@
       <c r="N202" s="2"/>
     </row>
     <row r="203" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="26" t="s">
+      <c r="A203" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="B203" s="26"/>
-      <c r="C203" s="26"/>
-      <c r="D203" s="26"/>
-      <c r="E203" s="26"/>
-      <c r="F203" s="26"/>
-      <c r="G203" s="26"/>
+      <c r="B203" s="41"/>
+      <c r="C203" s="41"/>
+      <c r="D203" s="41"/>
+      <c r="E203" s="41"/>
+      <c r="F203" s="41"/>
+      <c r="G203" s="41"/>
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
       <c r="J203" s="2"/>
@@ -8634,12 +11216,12 @@
       <c r="N228" s="2"/>
     </row>
     <row r="229" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A229" s="26" t="s">
+      <c r="A229" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="B229" s="26"/>
-      <c r="C229" s="26"/>
-      <c r="D229" s="26"/>
+      <c r="B229" s="41"/>
+      <c r="C229" s="41"/>
+      <c r="D229" s="41"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
@@ -8893,15 +11475,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B187:I187"/>
-    <mergeCell ref="A203:G203"/>
-    <mergeCell ref="A229:D229"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="F138:I138"/>
-    <mergeCell ref="A150:F150"/>
-    <mergeCell ref="H150:N150"/>
-    <mergeCell ref="B175:G175"/>
     <mergeCell ref="A115:D115"/>
     <mergeCell ref="F115:L115"/>
     <mergeCell ref="A1:D1"/>
@@ -8915,6 +11488,15 @@
     <mergeCell ref="A88:H88"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="F103:I103"/>
+    <mergeCell ref="B187:I187"/>
+    <mergeCell ref="A203:G203"/>
+    <mergeCell ref="A229:D229"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="F138:I138"/>
+    <mergeCell ref="A150:F150"/>
+    <mergeCell ref="H150:N150"/>
+    <mergeCell ref="B175:G175"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
